--- a/packages/central-server/__tests__/importers/programs-charting-complex-main-only-invalid.xlsx
+++ b/packages/central-server/__tests__/importers/programs-charting-complex-main-only-invalid.xlsx
@@ -116,7 +116,7 @@
     <t>visibilityStatus</t>
   </si>
   <si>
-    <t>testchartcode0</t>
+    <t>PatientChartingDate</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -185,11 +185,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1496,7 +1499,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
+    <col customWidth="1" min="1" max="1" width="23.0"/>
     <col customWidth="1" min="2" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="16.38"/>
     <col customWidth="1" min="4" max="4" width="16.63"/>
@@ -1560,7 +1563,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1591,7 +1594,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1605,7 +1608,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
